--- a/data/long_dif/P23_6-Urba-long_dif.xlsx
+++ b/data/long_dif/P23_6-Urba-long_dif.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:N36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,12 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +544,24 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
-        <is>
-          <t>Mujer</t>
-        </is>
-      </c>
+      <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +578,52 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
         </is>
       </c>
     </row>
@@ -587,6 +636,12 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -596,37 +651,67 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>18,94%</t>
+          <t>18,57%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>12,67%</t>
+          <t>12,9%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>17,73%</t>
+          <t>12,41%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>16,63%</t>
+          <t>20,38%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>18,32%</t>
+          <t>17,53%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>14,75%</t>
+          <t>16,48%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>17,42%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>21,41%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>18,03%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>14,78%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>15,04%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>20,91%</t>
         </is>
       </c>
     </row>
@@ -639,32 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>15,09; 24,09</t>
+          <t>14,92; 23,24</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>10,0; 15,97</t>
+          <t>10,12; 16,75</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>14,6; 21,32</t>
+          <t>8,95; 16,87</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>13,8; 19,72</t>
+          <t>16,06; 25,81</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>15,79; 21,31</t>
+          <t>14,84; 21,38</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>12,59; 17,02</t>
+          <t>13,51; 19,35</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>13,72; 21,45</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>17,38; 27,0</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>15,45; 20,79</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>12,8; 17,25</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>12,62; 18,43</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>17,49; 24,54</t>
         </is>
       </c>
     </row>
@@ -672,37 +787,67 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>65,48%</t>
+          <t>65,36%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>71,04%</t>
+          <t>70,13%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>64,22%</t>
+          <t>69,42%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>66,29%</t>
+          <t>56,25%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>64,83%</t>
+          <t>64,73%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>68,55%</t>
+          <t>66,38%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>61,54%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>59,04%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>65,04%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>68,16%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>65,29%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>57,69%</t>
         </is>
       </c>
     </row>
@@ -715,32 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>58,87; 70,67</t>
+          <t>58,92; 70,44</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>64,56; 75,89</t>
+          <t>62,73; 74,66</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>59,55; 68,4</t>
+          <t>63,38; 75,1</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>62,46; 69,69</t>
+          <t>49,85; 63,04</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>61,2; 68,32</t>
+          <t>60,29; 69,01</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>65,08; 71,45</t>
+          <t>62,59; 70,02</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>56,43; 66,24</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>53,95; 63,8</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>61,63; 68,93</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>64,75; 71,06</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>61,27; 69,37</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>53,65; 61,68</t>
         </is>
       </c>
     </row>
@@ -748,37 +923,67 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>15,58%</t>
+          <t>16,07%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>16,29%</t>
+          <t>16,97%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>18,05%</t>
+          <t>18,16%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>17,08%</t>
+          <t>23,36%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>16,85%</t>
+          <t>17,74%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>16,7%</t>
+          <t>17,14%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>21,04%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>19,56%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>16,93%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>17,06%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>19,67%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>21,4%</t>
         </is>
       </c>
     </row>
@@ -791,74 +996,130 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>12,1; 21,71</t>
+          <t>12,2; 21,97</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>12,64; 23,93</t>
+          <t>13,16; 26,03</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>14,81; 21,64</t>
+          <t>13,8; 23,17</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>14,22; 20,42</t>
+          <t>17,83; 29,2</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>14,45; 20,23</t>
+          <t>14,66; 21,5</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>14,39; 20,55</t>
+          <t>14,27; 20,3</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>16,96; 26,13</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>16,19; 24,15</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>14,31; 20,12</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>14,71; 20,77</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>16,71; 22,84</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>18,3; 24,83</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>Intermedio</t>
-        </is>
-      </c>
+      <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>20,27%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>18,88%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>23,22%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>15,18%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>21,76%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>17,03%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -871,70 +1132,134 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>15,1; 26,61</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>14,68; 25,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>19,06; 28,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>12,24; 19,02</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>18,28; 26,14</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>14,32; 20,35</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n"/>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>62,81%</t>
+          <t>20,63%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>65,87%</t>
+          <t>19,06%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>58,8%</t>
+          <t>16,36%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>67,84%</t>
+          <t>21,55%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>60,78%</t>
+          <t>22,89%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>66,85%</t>
+          <t>15,11%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>16,0%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>17,26%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>21,77%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>17,09%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>16,18%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>19,61%</t>
         </is>
       </c>
     </row>
@@ -947,32 +1272,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>56,22; 69,76</t>
+          <t>15,97; 27,09</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>60,3; 71,23</t>
+          <t>14,81; 25,07</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>53,44; 64,13</t>
+          <t>12,19; 21,58</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>62,95; 71,65</t>
+          <t>13,59; 31,1</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>56,16; 64,92</t>
+          <t>18,38; 28,38</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>63,57; 70,27</t>
+          <t>12,04; 18,46</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>11,93; 20,29</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>10,54; 26,79</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>18,33; 25,5</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>14,3; 20,44</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>13,25; 19,49</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>14,52; 25,42</t>
         </is>
       </c>
     </row>
@@ -980,37 +1335,67 @@
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>16,92%</t>
+          <t>61,81%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>15,25%</t>
+          <t>65,95%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>17,99%</t>
+          <t>61,06%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>16,98%</t>
+          <t>53,55%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>17,46%</t>
+          <t>59,1%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>16,12%</t>
+          <t>67,67%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>62,04%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>52,55%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>60,44%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>66,81%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>61,55%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>53,1%</t>
         </is>
       </c>
     </row>
@@ -1023,74 +1408,130 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>12,31; 22,55</t>
+          <t>55,19; 68,19</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>11,8; 19,11</t>
+          <t>59,49; 70,97</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>14,65; 22,97</t>
+          <t>53,84; 67,57</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>13,5; 20,88</t>
+          <t>42,84; 67,19</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>14,2; 20,82</t>
+          <t>53,44; 64,39</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>13,91; 18,91</t>
+          <t>62,82; 71,7</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>56,68; 67,49</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>42,37; 63,27</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>56,28; 64,88</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>63,31; 70,36</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>56,99; 65,9</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>45,6; 62,21</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>20,15%</t>
+          <t>17,56%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>16,18%</t>
+          <t>14,98%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>18,43%</t>
+          <t>22,58%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>13,91%</t>
+          <t>24,9%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>19,3%</t>
+          <t>18,02%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>15,06%</t>
+          <t>17,22%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>21,96%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>30,19%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>17,79%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>16,1%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>22,27%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>27,3%</t>
         </is>
       </c>
     </row>
@@ -1103,32 +1544,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>11,99; 32,01</t>
+          <t>12,97; 23,08</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>9,87; 28,43</t>
+          <t>11,56; 19,41</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>12,03; 29,19</t>
+          <t>16,64; 29,8</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>9,0; 21,38</t>
+          <t>16,69; 34,52</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>13,45; 26,05</t>
+          <t>14,55; 22,54</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>10,89; 22,13</t>
+          <t>13,8; 21,68</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>17,73; 27,31</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>21,95; 41,57</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>14,81; 21,24</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>13,67; 18,82</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>19,04; 27,02</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>20,92; 34,89</t>
         </is>
       </c>
     </row>
@@ -1136,37 +1607,67 @@
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>59,32%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>71,16%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>63,95%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>67,65%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>61,6%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>69,42%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1179,70 +1680,134 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>46,52; 71,19</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>60,8; 80,09</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>53,49; 73,59</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>58,4; 75,53</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>53,31; 69,33</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>62,54; 75,93</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n"/>
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>20,54%</t>
+          <t>19,34%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>12,66%</t>
+          <t>16,89%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>17,62%</t>
+          <t>26,01%</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>18,44%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>19,1%</t>
+          <t>18,34%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>15,52%</t>
+          <t>14,44%</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>13,43%</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>18,85%</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>15,67%</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>19,63%</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1255,74 +1820,130 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>11,15; 38,02</t>
+          <t>11,36; 30,38</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>6,98; 20,65</t>
+          <t>10,09; 30,45</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>10,47; 26,57</t>
+          <t>13,1; 44,26</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>11,29; 26,56</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>13,04; 28,81</t>
+          <t>11,48; 28,89</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>10,95; 22,15</t>
+          <t>8,66; 21,72</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>7,46; 21,94</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>13,48; 25,53</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>10,98; 23,69</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>12,61; 30,34</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A22" s="1" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>19,61%</t>
+          <t>58,37%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>15,59%</t>
+          <t>69,8%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>19,97%</t>
+          <t>43,82%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>15,76%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>19,79%</t>
+          <t>63,69%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>15,68%</t>
+          <t>66,67%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>67,4%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>61,0%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>68,24%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>55,78%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1335,32 +1956,62 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>16,58; 23,01</t>
+          <t>40,96; 69,84</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>13,14; 18,59</t>
+          <t>57,65; 78,53</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>17,2; 22,91</t>
+          <t>28,77; 59,9</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>13,77; 17,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>17,88; 22,24</t>
+          <t>52,05; 72,58</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>13,95; 17,52</t>
+          <t>57,64; 75,22</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>56,76; 77,27</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>51,81; 68,41</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>60,64; 74,74</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>42,32; 64,91</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1368,37 +2019,67 @@
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>63,67%</t>
+          <t>22,28%</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>68,98%</t>
+          <t>13,31%</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>62,06%</t>
+          <t>30,18%</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>67,04%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>62,85%</t>
+          <t>17,97%</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>67,99%</t>
+          <t>18,9%</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>19,17%</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>20,16%</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>16,08%</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>24,59%</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1411,32 +2092,62 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>59,81; 67,93</t>
+          <t>11,87; 43,66</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>64,89; 72,36</t>
+          <t>7,78; 23,12</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>59,04; 65,28</t>
+          <t>15,65; 54,93</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>64,2; 69,81</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>60,13; 65,25</t>
+          <t>11,78; 26,91</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>65,66; 70,32</t>
+          <t>12,73; 27,48</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>11,15; 28,37</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>13,87; 31,34</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>11,23; 21,76</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>16,9; 43,3</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1444,37 +2155,67 @@
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>16,72%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>15,43%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>17,97%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>17,2%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>17,36%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>16,33%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1487,45 +2228,630 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>13,45; 20,32</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>12,97; 19,38</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>15,68; 20,5</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>15,07; 19,54</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>15,34; 19,44</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>14,57; 18,34</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>Más diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>19,48%</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>15,86%</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>15,59%</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>20,67%</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>19,72%</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>15,72%</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>16,42%</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>20,57%</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>19,6%</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>15,79%</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>16,02%</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>20,62%</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>16,43; 23,19</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>13,2; 19,4</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>12,58; 19,34</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>16,86; 25,39</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>17,22; 22,54</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>13,75; 17,75</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>13,92; 19,49</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>17,21; 25,35</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>17,73; 21,76</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>14,09; 17,56</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>14,09; 18,33</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>17,89; 23,58</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>63,1%</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>68,41%</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>63,06%</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>55,59%</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>62,41%</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>66,91%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>62,4%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>57,72%</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>62,75%</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>67,64%</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>62,72%</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>56,66%</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n"/>
+      <c r="B31" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C31" s="2" t="inlineStr">
+        <is>
+          <t>57,99; 66,65</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>64,35; 71,75</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>58,31; 67,65</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>50,19; 61,36</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>59,38; 65,6</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>64,08; 69,43</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>58,78; 65,91</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>52,42; 61,67</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>60,11; 65,47</t>
+        </is>
+      </c>
+      <c r="L31" s="2" t="inlineStr">
+        <is>
+          <t>65,24; 69,85</t>
+        </is>
+      </c>
+      <c r="M31" s="2" t="inlineStr">
+        <is>
+          <t>59,54; 65,66</t>
+        </is>
+      </c>
+      <c r="N31" s="2" t="inlineStr">
+        <is>
+          <t>53,37; 60,6</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n"/>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Menos Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>17,41%</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>15,73%</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>21,35%</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>23,74%</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>17,87%</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>17,37%</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>21,17%</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>21,71%</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>17,65%</t>
+        </is>
+      </c>
+      <c r="L32" s="2" t="inlineStr">
+        <is>
+          <t>16,57%</t>
+        </is>
+      </c>
+      <c r="M32" s="2" t="inlineStr">
+        <is>
+          <t>21,26%</t>
+        </is>
+      </c>
+      <c r="N32" s="2" t="inlineStr">
+        <is>
+          <t>22,72%</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>14,31; 21,43</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>13,22; 19,45</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>17,66; 26,39</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>19,53; 29,14</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>15,55; 20,37</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>15,31; 19,84</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>18,38; 24,43</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>18,09; 25,68</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>15,47; 19,94</t>
+        </is>
+      </c>
+      <c r="L33" s="2" t="inlineStr">
+        <is>
+          <t>14,93; 18,7</t>
+        </is>
+      </c>
+      <c r="M33" s="2" t="inlineStr">
+        <is>
+          <t>18,92; 24,26</t>
+        </is>
+      </c>
+      <c r="N33" s="2" t="inlineStr">
+        <is>
+          <t>19,88; 26,01</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A10:A15"/>
+    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="A20:A27"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A28:A35"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/long_dif/P23_6-Urba-long_dif.xlsx
+++ b/data/long_dif/P23_6-Urba-long_dif.xlsx
@@ -656,7 +656,7 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Más diferencia negativa</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C4" s="5" t="n">
@@ -788,7 +788,7 @@
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C7" s="5" t="n">
@@ -920,7 +920,7 @@
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Menos Diferencia Positiva</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C10" s="5" t="n">
@@ -1056,7 +1056,7 @@
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>Más diferencia negativa</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C13" s="5" t="n">
@@ -1188,7 +1188,7 @@
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C16" s="5" t="n">
@@ -1320,7 +1320,7 @@
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>Menos Diferencia Positiva</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C19" s="5" t="n">
@@ -1456,7 +1456,7 @@
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Más diferencia negativa</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C22" s="5" t="n">
@@ -1570,7 +1570,7 @@
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C25" s="5" t="n">
@@ -1684,7 +1684,7 @@
       <c r="A28" s="1" t="n"/>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>Menos Diferencia Positiva</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C28" s="5" t="n">
@@ -1802,7 +1802,7 @@
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>Más diferencia negativa</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C31" s="5" t="n">
@@ -1934,7 +1934,7 @@
       <c r="A34" s="1" t="n"/>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C34" s="5" t="n">
@@ -2066,7 +2066,7 @@
       <c r="A37" s="1" t="n"/>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>Menos Diferencia Positiva</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C37" s="5" t="n">
